--- a/data/physicochemical_data_2017_2019.xlsx
+++ b/data/physicochemical_data_2017_2019.xlsx
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFF6240-E122-49A7-8486-080697946DC8}">
   <dimension ref="A1:F2051"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A1919" workbookViewId="0">
+      <selection activeCell="E1938" sqref="E1938"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/physicochemical_data_2017_2019.xlsx
+++ b/data/physicochemical_data_2017_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/LTER/Manuscript 2019 Stable Isotopes/SIA_Plots 2017-2019/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{054E564A-58FA-4B20-A87D-B38BABD367BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B363D1-F8D8-4858-A46E-4E5AE4AD316D}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{054E564A-58FA-4B20-A87D-B38BABD367BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B427413E-6F55-433A-8B6C-C8D32559CDF7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{849D2966-21AB-4B9A-8D7A-277CE6611C05}"/>
   </bookViews>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +129,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -142,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -151,6 +157,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFF6240-E122-49A7-8486-080697946DC8}">
   <dimension ref="A1:F2051"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="D369" sqref="D1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1944" workbookViewId="0">
+      <selection activeCell="C1961" sqref="C1961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39138,602 +39147,602 @@
       </c>
     </row>
     <row r="1932" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1932" s="2">
+      <c r="A1932" s="8">
         <v>42749</v>
       </c>
-      <c r="B1932" t="s">
+      <c r="B1932" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1932" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1932" s="4">
+      <c r="C1932" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1932" s="10">
         <v>741.34989849999999</v>
       </c>
-      <c r="E1932" s="1">
+      <c r="E1932" s="9">
         <v>330.222579</v>
       </c>
-      <c r="F1932" s="1">
+      <c r="F1932" s="9">
         <v>134.81280340000001</v>
       </c>
     </row>
     <row r="1933" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1933" s="2">
+      <c r="A1933" s="8">
         <v>42777</v>
       </c>
-      <c r="B1933" t="s">
+      <c r="B1933" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1933" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1933" s="4">
+      <c r="C1933" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1933" s="10">
         <v>776.30097679999994</v>
       </c>
-      <c r="E1933" s="1">
+      <c r="E1933" s="9">
         <v>300.31336859999999</v>
       </c>
-      <c r="F1933" s="1">
+      <c r="F1933" s="9">
         <v>122.60241929999999</v>
       </c>
     </row>
     <row r="1934" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1934" s="2">
+      <c r="A1934" s="8">
         <v>42805</v>
       </c>
-      <c r="B1934" t="s">
+      <c r="B1934" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1934" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1934" s="3">
+      <c r="C1934" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1934" s="10">
         <v>540.57319170000005</v>
       </c>
-      <c r="E1934">
+      <c r="E1934" s="9">
         <v>115.6666034</v>
       </c>
-      <c r="F1934">
+      <c r="F1934" s="9">
         <v>47.220693089999997</v>
       </c>
     </row>
     <row r="1935" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1935" s="2">
+      <c r="A1935" s="8">
         <v>42833</v>
       </c>
-      <c r="B1935" t="s">
+      <c r="B1935" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1935" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1935" s="3">
+      <c r="C1935" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1935" s="10">
         <v>356.60569659999999</v>
       </c>
-      <c r="E1935">
+      <c r="E1935" s="9">
         <v>173.4264082</v>
       </c>
-      <c r="F1935">
+      <c r="F1935" s="9">
         <v>70.801034659999999</v>
       </c>
     </row>
     <row r="1936" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1936" s="2">
+      <c r="A1936" s="8">
         <v>42869</v>
       </c>
-      <c r="B1936" t="s">
+      <c r="B1936" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1936" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1936" s="3">
+      <c r="C1936" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1936" s="10">
         <v>483.11852529999999</v>
       </c>
-      <c r="E1936">
+      <c r="E1936" s="9">
         <v>181.65435479999999</v>
       </c>
-      <c r="F1936">
+      <c r="F1936" s="9">
         <v>74.160079809999999</v>
       </c>
     </row>
     <row r="1937" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1937" s="2">
+      <c r="A1937" s="8">
         <v>42900</v>
       </c>
-      <c r="B1937" t="s">
+      <c r="B1937" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1937" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1937" s="3">
+      <c r="C1937" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1937" s="10">
         <v>445.85341649999998</v>
       </c>
-      <c r="E1937">
+      <c r="E1937" s="9">
         <v>249.13292730000001</v>
       </c>
-      <c r="F1937">
+      <c r="F1937" s="9">
         <v>101.7080917</v>
       </c>
     </row>
     <row r="1938" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1938" s="2">
+      <c r="A1938" s="8">
         <v>42924</v>
       </c>
-      <c r="B1938" t="s">
+      <c r="B1938" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1938" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1938" s="3">
+      <c r="C1938" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1938" s="10">
         <v>370.04806719999999</v>
       </c>
-      <c r="E1938">
+      <c r="E1938" s="9">
         <v>141.56001209999999</v>
       </c>
-      <c r="F1938">
+      <c r="F1938" s="9">
         <v>57.791632919999998</v>
       </c>
     </row>
     <row r="1939" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1939" s="2">
+      <c r="A1939" s="8">
         <v>42958</v>
       </c>
-      <c r="B1939" t="s">
+      <c r="B1939" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1939" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1939" s="3">
+      <c r="C1939" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1939" s="10">
         <v>362.56496179999999</v>
       </c>
-      <c r="E1939">
+      <c r="E1939" s="9">
         <v>135.79688659999999</v>
       </c>
-      <c r="F1939">
+      <c r="F1939" s="9">
         <v>55.438846810000001</v>
       </c>
     </row>
     <row r="1940" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1940" s="2">
+      <c r="A1940" s="8">
         <v>42988</v>
       </c>
-      <c r="B1940" t="s">
+      <c r="B1940" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1940" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1940" s="3">
+      <c r="C1940" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1940" s="10">
         <v>311.99880830000001</v>
       </c>
-      <c r="E1940">
+      <c r="E1940" s="9">
         <v>132.20070419999999</v>
       </c>
-      <c r="F1940">
+      <c r="F1940" s="9">
         <v>53.970711489999999</v>
       </c>
     </row>
     <row r="1941" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1941" s="2">
+      <c r="A1941" s="8">
         <v>43011</v>
       </c>
-      <c r="B1941" t="s">
+      <c r="B1941" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1941" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1941" s="3">
+      <c r="C1941" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1941" s="10">
         <v>367.43887180000002</v>
       </c>
-      <c r="E1941">
+      <c r="E1941" s="9">
         <v>159.68405780000001</v>
       </c>
-      <c r="F1941">
+      <c r="F1941" s="9">
         <v>65.190743589999997</v>
       </c>
     </row>
     <row r="1942" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1942" s="2">
+      <c r="A1942" s="8">
         <v>43043</v>
       </c>
-      <c r="B1942" t="s">
+      <c r="B1942" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1942" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1942" s="3">
+      <c r="C1942" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1942" s="10">
         <v>483.53811960000002</v>
       </c>
-      <c r="E1942">
+      <c r="E1942" s="9">
         <v>239.6386124</v>
       </c>
-      <c r="F1942">
+      <c r="F1942" s="9">
         <v>97.832053830000007</v>
       </c>
     </row>
     <row r="1943" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1943" s="2">
+      <c r="A1943" s="8">
         <v>43076</v>
       </c>
-      <c r="B1943" t="s">
+      <c r="B1943" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1943" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1943" s="3">
+      <c r="C1943" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1943" s="10">
         <v>333.27252240000001</v>
       </c>
-      <c r="E1943">
+      <c r="E1943" s="9">
         <v>107.471501</v>
       </c>
-      <c r="F1943">
+      <c r="F1943" s="9">
         <v>43.875056549999996</v>
       </c>
     </row>
     <row r="1944" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1944" s="2">
+      <c r="A1944" s="8">
         <v>43123</v>
       </c>
-      <c r="B1944" t="s">
+      <c r="B1944" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1944" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1944" s="3">
+      <c r="C1944" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1944" s="10">
         <v>388.86238539999999</v>
       </c>
-      <c r="E1944">
+      <c r="E1944" s="9">
         <v>195.97776260000001</v>
       </c>
-      <c r="F1944">
+      <c r="F1944" s="9">
         <v>80.007586540000005</v>
       </c>
     </row>
     <row r="1945" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1945" s="2">
+      <c r="A1945" s="8">
         <v>43146</v>
       </c>
-      <c r="B1945" t="s">
+      <c r="B1945" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1945" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1945" s="3">
+      <c r="C1945" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1945" s="10">
         <v>372.06552490000001</v>
       </c>
-      <c r="E1945">
+      <c r="E1945" s="9">
         <v>124.7928443</v>
       </c>
-      <c r="F1945">
+      <c r="F1945" s="9">
         <v>50.946465340000003</v>
       </c>
     </row>
     <row r="1946" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1946" s="2">
+      <c r="A1946" s="8">
         <v>43172</v>
       </c>
-      <c r="B1946" t="s">
+      <c r="B1946" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1946" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1946" s="4">
+      <c r="C1946" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1946" s="10">
         <v>235.46218519999999</v>
       </c>
-      <c r="E1946" s="1">
+      <c r="E1946" s="9">
         <v>82.912227590000001</v>
       </c>
-      <c r="F1946" s="1">
+      <c r="F1946" s="9">
         <v>33.848775170000003</v>
       </c>
     </row>
     <row r="1947" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1947" s="2">
+      <c r="A1947" s="8">
         <v>43202</v>
       </c>
-      <c r="B1947" t="s">
+      <c r="B1947" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1947" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1947" s="3">
+      <c r="C1947" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1947" s="10">
         <v>301.26849750000002</v>
       </c>
-      <c r="E1947">
+      <c r="E1947" s="9">
         <v>110.7594795</v>
       </c>
-      <c r="F1947">
+      <c r="F1947" s="9">
         <v>45.217368159999999</v>
       </c>
     </row>
     <row r="1948" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1948" s="2">
+      <c r="A1948" s="8">
         <v>43221</v>
       </c>
-      <c r="B1948" t="s">
+      <c r="B1948" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1948" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1948" s="3">
+      <c r="C1948" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1948" s="10">
         <v>725.57503840000004</v>
       </c>
-      <c r="E1948">
+      <c r="E1948" s="9">
         <v>408.42475250000001</v>
       </c>
-      <c r="F1948">
+      <c r="F1948" s="9">
         <v>166.73870700000001</v>
       </c>
     </row>
     <row r="1949" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1949" s="2">
+      <c r="A1949" s="8">
         <v>43266</v>
       </c>
-      <c r="B1949" t="s">
+      <c r="B1949" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1949" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1949" s="3">
+      <c r="C1949" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1949" s="10">
         <v>516.15191649999997</v>
       </c>
-      <c r="E1949">
+      <c r="E1949" s="9">
         <v>194.84021920000001</v>
       </c>
-      <c r="F1949">
+      <c r="F1949" s="9">
         <v>79.543186390000002</v>
       </c>
     </row>
     <row r="1950" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1950" s="2">
+      <c r="A1950" s="8">
         <v>43282</v>
       </c>
-      <c r="B1950" t="s">
+      <c r="B1950" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1950" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1950" s="3">
+      <c r="C1950" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1950" s="10">
         <v>515.04700349999996</v>
       </c>
-      <c r="E1950">
+      <c r="E1950" s="9">
         <v>243.41956769999999</v>
       </c>
-      <c r="F1950">
+      <c r="F1950" s="9">
         <v>99.375622399999997</v>
       </c>
     </row>
     <row r="1951" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1951" s="2">
+      <c r="A1951" s="8">
         <v>43313</v>
       </c>
-      <c r="B1951" t="s">
+      <c r="B1951" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1951" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1951" s="3">
+      <c r="C1951" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1951" s="10">
         <v>605.40025319999995</v>
       </c>
-      <c r="E1951">
+      <c r="E1951" s="9">
         <v>113.26291519999999</v>
       </c>
-      <c r="F1951">
+      <c r="F1951" s="9">
         <v>46.239391490000003</v>
       </c>
     </row>
     <row r="1952" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1952" s="2">
+      <c r="A1952" s="8">
         <v>43352</v>
       </c>
-      <c r="B1952" t="s">
+      <c r="B1952" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1952" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1952" s="3">
+      <c r="C1952" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1952" s="10">
         <v>362.92447809999999</v>
       </c>
-      <c r="E1952">
+      <c r="E1952" s="9">
         <v>79.68443388</v>
       </c>
-      <c r="F1952">
+      <c r="F1952" s="9">
         <v>32.531033909999998</v>
       </c>
     </row>
     <row r="1953" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1953" s="2">
+      <c r="A1953" s="8">
         <v>43377</v>
       </c>
-      <c r="B1953" t="s">
+      <c r="B1953" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1953" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1953" s="3">
+      <c r="C1953" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1953" s="10">
         <v>539.46039640000004</v>
       </c>
-      <c r="E1953">
+      <c r="E1953" s="9">
         <v>132.22288069999999</v>
       </c>
-      <c r="F1953">
+      <c r="F1953" s="9">
         <v>53.979765020000002</v>
       </c>
     </row>
     <row r="1954" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1954" s="2">
+      <c r="A1954" s="8">
         <v>43410</v>
       </c>
-      <c r="B1954" t="s">
+      <c r="B1954" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1954" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1954" s="3">
+      <c r="C1954" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1954" s="10">
         <v>373.98121700000002</v>
       </c>
-      <c r="E1954">
+      <c r="E1954" s="9">
         <v>74.56976813</v>
       </c>
-      <c r="F1954">
+      <c r="F1954" s="9">
         <v>30.44298036</v>
       </c>
     </row>
     <row r="1955" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1955" s="2">
+      <c r="A1955" s="8">
         <v>43439</v>
       </c>
-      <c r="B1955" t="s">
+      <c r="B1955" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1955" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1955" s="4">
+      <c r="C1955" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1955" s="10">
         <v>640.98099300000001</v>
       </c>
-      <c r="E1955" s="1">
+      <c r="E1955" s="9">
         <v>97.814615489999994</v>
       </c>
-      <c r="F1955" s="1">
+      <c r="F1955" s="9">
         <v>39.932649560000002</v>
       </c>
     </row>
     <row r="1956" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1956" s="2">
+      <c r="A1956" s="8">
         <v>43480</v>
       </c>
-      <c r="B1956" t="s">
+      <c r="B1956" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1956" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1956" s="3">
+      <c r="C1956" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1956" s="10">
         <v>672.28458390000003</v>
       </c>
-      <c r="E1956">
+      <c r="E1956" s="9">
         <v>99.617894230000005</v>
       </c>
-      <c r="F1956">
+      <c r="F1956" s="9">
         <v>40.668835020000003</v>
       </c>
     </row>
     <row r="1957" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1957" s="2">
+      <c r="A1957" s="8">
         <v>43503</v>
       </c>
-      <c r="B1957" t="s">
+      <c r="B1957" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1957" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1957" s="3">
+      <c r="C1957" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1957" s="10">
         <v>649.20984629999998</v>
       </c>
-      <c r="E1957">
+      <c r="E1957" s="9">
         <v>136.33164489999999</v>
       </c>
-      <c r="F1957">
+      <c r="F1957" s="9">
         <v>55.657160990000001</v>
       </c>
     </row>
     <row r="1958" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1958" s="2">
+      <c r="A1958" s="8">
         <v>43531</v>
       </c>
-      <c r="B1958" t="s">
+      <c r="B1958" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1958" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1958" s="3">
+      <c r="C1958" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1958" s="10">
         <v>512.82540979999999</v>
       </c>
-      <c r="E1958">
+      <c r="E1958" s="9">
         <v>99.237509919999994</v>
       </c>
-      <c r="F1958">
+      <c r="F1958" s="9">
         <v>40.513543769999998</v>
       </c>
     </row>
     <row r="1959" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1959" s="2">
+      <c r="A1959" s="8">
         <v>43560</v>
       </c>
-      <c r="B1959" t="s">
+      <c r="B1959" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1959" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1959" s="3">
+      <c r="C1959" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1959" s="10">
         <v>491.10340609999997</v>
       </c>
-      <c r="E1959">
+      <c r="E1959" s="9">
         <v>182.41841220000001</v>
       </c>
-      <c r="F1959">
+      <c r="F1959" s="9">
         <v>74.472004929999997</v>
       </c>
     </row>
     <row r="1960" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1960" s="2">
+      <c r="A1960" s="8">
         <v>43588</v>
       </c>
-      <c r="B1960" t="s">
+      <c r="B1960" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1960" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1960" s="3">
+      <c r="C1960" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1960" s="10">
         <v>462.17637989999997</v>
       </c>
-      <c r="E1960">
+      <c r="E1960" s="9">
         <v>258.55382700000001</v>
       </c>
-      <c r="F1960">
+      <c r="F1960" s="9">
         <v>105.55415790000001</v>
       </c>
     </row>
     <row r="1961" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1961" s="2">
+      <c r="A1961" s="8">
         <v>43631</v>
       </c>
-      <c r="B1961" t="s">
+      <c r="B1961" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1961" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1961" s="3">
+      <c r="C1961" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1961" s="10">
         <v>485.15616799999998</v>
       </c>
-      <c r="E1961">
+      <c r="E1961" s="9">
         <v>146.7363799</v>
       </c>
-      <c r="F1961">
+      <c r="F1961" s="9">
         <v>59.904876250000001</v>
       </c>
     </row>
